--- a/Technology/Hardware/STMicroelectronics.xlsx
+++ b/Technology/Hardware/STMicroelectronics.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D32726-2B71-0F4F-A300-E2F467122152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CFBC78-7484-0E49-A4CF-18FB08D5A387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18140" yWindow="500" windowWidth="22800" windowHeight="22520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$28</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$B$28:$AC$28</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$B$3:$AC$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$A$28</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$28:$AC$28</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$B$3:$AC$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1026,6 +1017,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1037,12 +1034,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2305,11 +2296,9 @@
     <v>Powered by Refinitiv</v>
     <v>53.53</v>
     <v>28.35</v>
-    <v>1.5790999999999999</v>
-    <v>0.36</v>
-    <v>7.9930000000000001E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.5825</v>
+    <v>0.28999999999999998</v>
+    <v>6.0799999999999995E-3</v>
     <v>USD</v>
     <v>STMicroelectronics N.V. is a Switzerland-based semiconductor company. It designs, develops, manufactures and markets a range of products, including discrete and standard commodity components, and application-specific integrated circuits (ASICs) for analog, digital and mixed-signal applications. The Company's segments include Automotive and Discrete Group (ADG), Analog, MEMS and Sensors Group (AMS), and Microcontrollers and Digital ICs Group (MDG). The ADG segment comprises all dedicated automotive Integrated Circuits (ICs), and discrete and power transistor products. The AMS segment includes low-power analog ICs for all markets, smart power products; Touch Screen Controllers, Low Power Connectivity solutions for Internet of Things (IoT), and power conversion products, among others. The AMS segment comprises general purpose and secure microcontrollers, and Electrically Erasable Programmable Read-Only Memory memories.</v>
     <v>51370</v>
@@ -2317,25 +2306,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Schiphol Boulevard 265, SCHIPHOL, NOORD-HOLLAND, 1118 BH NL</v>
-    <v>45.465000000000003</v>
+    <v>48.19</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45068.887767638284</v>
+    <v>45099.997605566408</v>
     <v>0</v>
-    <v>44.82</v>
-    <v>40760820000</v>
+    <v>47.375</v>
+    <v>43316450000</v>
     <v>STMicroelectronics NV</v>
     <v>STMicroelectronics NV</v>
-    <v>44.88</v>
-    <v>10.002000000000001</v>
-    <v>45.04</v>
-    <v>45.4</v>
-    <v>45.41</v>
+    <v>47.5</v>
+    <v>10.6571</v>
+    <v>47.7</v>
+    <v>47.99</v>
     <v>911281900</v>
     <v>STM</v>
     <v>STMicroelectronics NV (XNYS:STM)</v>
-    <v>1745394</v>
-    <v>3740330</v>
+    <v>16749</v>
+    <v>3535719</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2367,8 +2355,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2389,7 +2375,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2406,7 +2391,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2417,16 +2402,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2492,19 +2474,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2549,9 +2525,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2559,9 +2532,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2923,10 +2893,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ135" sqref="AJ135"/>
+      <selection pane="bottomRight" activeCell="AB115" sqref="AB115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4631,15 +4601,15 @@
       </c>
       <c r="AJ16" s="30">
         <f>AK101/AC3</f>
-        <v>2.5273325892857144</v>
+        <v>2.6857917906746032</v>
       </c>
       <c r="AK16" s="30">
         <f>AK101/AC28</f>
-        <v>10.293136363636364</v>
+        <v>10.938497474747475</v>
       </c>
       <c r="AL16" s="31">
         <f>AK101/AC106</f>
-        <v>64.699714285714279</v>
+        <v>68.756269841269841</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -10714,10 +10684,10 @@
       <c r="AC83" s="1">
         <v>-125000000</v>
       </c>
-      <c r="AJ83" s="60" t="s">
+      <c r="AJ83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AK83" s="61"/>
+      <c r="AK83" s="63"/>
     </row>
     <row r="84" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10807,10 +10777,10 @@
       <c r="AC84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ84" s="62" t="s">
+      <c r="AJ84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AK84" s="63"/>
+      <c r="AK84" s="65"/>
     </row>
     <row r="85" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11696,10 +11666,10 @@
       <c r="AC93" s="1">
         <v>-924000000</v>
       </c>
-      <c r="AJ93" s="62" t="s">
+      <c r="AJ93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AK93" s="63"/>
+      <c r="AK93" s="65"/>
     </row>
     <row r="94" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11889,7 +11859,7 @@
       </c>
       <c r="AK95" s="39" cm="1">
         <f t="array" ref="AK95">_FV(A1,"Beta")</f>
-        <v>1.5790999999999999</v>
+        <v>1.5825</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12080,7 +12050,7 @@
       </c>
       <c r="AK97" s="36">
         <f>(AK94)+((AK95)*(AK96-AK94))</f>
-        <v>0.108930255</v>
+        <v>0.10907662500000001</v>
       </c>
     </row>
     <row r="98" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12171,10 +12141,10 @@
       <c r="AC98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ98" s="62" t="s">
+      <c r="AJ98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AK98" s="63"/>
+      <c r="AK98" s="65"/>
     </row>
     <row r="99" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12365,7 +12335,7 @@
       </c>
       <c r="AK100" s="34">
         <f>AK99/AK103</f>
-        <v>6.2491633665165365E-2</v>
+        <v>5.9022297915971973E-2</v>
       </c>
     </row>
     <row r="101" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12461,7 +12431,7 @@
       </c>
       <c r="AK101" s="40" cm="1">
         <f t="array" ref="AK101">_FV(A1,"Market cap",TRUE)</f>
-        <v>40760820000</v>
+        <v>43316450000</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12557,7 +12527,7 @@
       </c>
       <c r="AK102" s="34">
         <f>AK101/AK103</f>
-        <v>0.93750836633483459</v>
+        <v>0.94097770208402798</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12653,7 +12623,7 @@
       </c>
       <c r="AK103" s="41">
         <f>AK99+AK101</f>
-        <v>43477820000</v>
+        <v>46033450000</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12744,10 +12714,10 @@
       <c r="AC104" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AJ104" s="62" t="s">
+      <c r="AJ104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AK104" s="63"/>
+      <c r="AK104" s="65"/>
     </row>
     <row r="105" spans="1:37" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -12873,7 +12843,7 @@
       </c>
       <c r="AK105" s="26">
         <f>(AK100*AK92)+(AK102*AK97)</f>
-        <v>0.10330240517936527</v>
+        <v>0.10375257631847409</v>
       </c>
     </row>
     <row r="106" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -13031,7 +13001,7 @@
       <c r="AG107" s="43"/>
       <c r="AH107" s="46">
         <f>AH106*(1+AK107)/(AK108-AK107)</f>
-        <v>11236288163.934414</v>
+        <v>11172058485.635918</v>
       </c>
       <c r="AI107" s="47" t="s">
         <v>148</v>
@@ -13062,7 +13032,7 @@
       </c>
       <c r="AH108" s="46">
         <f>AH107+AH106</f>
-        <v>12094657323.47051</v>
+        <v>12030427645.172014</v>
       </c>
       <c r="AI108" s="47" t="s">
         <v>144</v>
@@ -13072,14 +13042,14 @@
       </c>
       <c r="AK108" s="51">
         <f>AK105</f>
-        <v>0.10330240517936527</v>
+        <v>0.10375257631847409</v>
       </c>
     </row>
     <row r="109" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="AD109" s="64" t="s">
+      <c r="AD109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AE109" s="65"/>
+      <c r="AE109" s="61"/>
     </row>
     <row r="110" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="AD110" s="52" t="s">
@@ -13087,7 +13057,7 @@
       </c>
       <c r="AE110" s="40">
         <f>NPV(AK108,AD108,AE108,AF108,AG108,AH108)</f>
-        <v>9700565447.9957142</v>
+        <v>9643978764.0251789</v>
       </c>
     </row>
     <row r="111" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -13114,7 +13084,7 @@
       </c>
       <c r="AE113" s="40">
         <f>AE110+AE111-AE112</f>
-        <v>11501565447.995714</v>
+        <v>11444978764.025179</v>
       </c>
     </row>
     <row r="114" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13132,7 +13102,7 @@
       </c>
       <c r="AE115" s="55">
         <f>AE113/AE114</f>
-        <v>11.630556716795986</v>
+        <v>11.573335407200307</v>
       </c>
     </row>
     <row r="116" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13141,7 +13111,7 @@
       </c>
       <c r="AE116" s="56" cm="1">
         <f t="array" ref="AE116">_FV(A1,"Price")</f>
-        <v>45.4</v>
+        <v>47.99</v>
       </c>
     </row>
     <row r="117" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13150,7 +13120,7 @@
       </c>
       <c r="AE117" s="58">
         <f>AE115/AE116-1</f>
-        <v>-0.74382033663444957</v>
+        <v>-0.75883860372576983</v>
       </c>
     </row>
     <row r="118" spans="30:31" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/STMicroelectronics.xlsx
+++ b/Technology/Hardware/STMicroelectronics.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CFBC78-7484-0E49-A4CF-18FB08D5A387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5B18FC-A493-E041-AA13-061E125850FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,17 +547,46 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +861,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,100 +922,99 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1053,1125 +1034,58 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2400"/>
-              <a:t>STM</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.4016583747927037E-2"/>
-          <c:y val="0.12623569621018885"/>
-          <c:w val="0.8676086235489221"/>
-          <c:h val="0.72044743766824282"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet 1'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$AC$3</c:f>
-              <c:numCache>
-                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>3554400000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4122360000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4019145000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4247752000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5056276000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7813203000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6356896000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5056000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7238000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8760000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8882000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9854000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10001000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9842000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8510000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10346000000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9735000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8493000000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8082000000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7404000000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6897000000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6973000000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8347000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9664000000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9556000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10219000000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12761000000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>16128000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9F03-964E-9508-4EB91C0B1725}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet 1'!$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Net Income</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet 1'!$B$28:$AC$28</c:f>
-              <c:numCache>
-                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>526500000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>625544000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>406554000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>411121000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>547252000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1452103000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>257067000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>547000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>253000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>601000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>266000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>782000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-477000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-786000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1591000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>840000000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>155000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-2188000000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-629000000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>129000000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>110000000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>170000000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>810000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1293000000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1033000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1106000000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2000000000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3960000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9F03-964E-9508-4EB91C0B1725}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1458021839"/>
-        <c:axId val="1458023567"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1458021839"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1458023567"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1458023567"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,###,,;\(#,###,,\);\ \-\ \-" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1458021839"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.40668813413248711"/>
-          <c:y val="0.91677719862481977"/>
-          <c:w val="0.199890625612097"/>
-          <c:h val="5.2492967828445258E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D09069-7388-A867-4FF6-F0FED3265226}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.857E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2294,11 +1208,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>53.53</v>
-    <v>28.35</v>
-    <v>1.5825</v>
-    <v>0.28999999999999998</v>
-    <v>6.0799999999999995E-3</v>
+    <v>53.62</v>
+    <v>29.09</v>
+    <v>1.6035999999999999</v>
+    <v>1.1599999999999999</v>
+    <v>2.2989000000000002E-2</v>
+    <v>-0.25</v>
+    <v>-4.8430000000000001E-3</v>
     <v>USD</v>
     <v>STMicroelectronics N.V. is a Switzerland-based semiconductor company. It designs, develops, manufactures and markets a range of products, including discrete and standard commodity components, and application-specific integrated circuits (ASICs) for analog, digital and mixed-signal applications. The Company's segments include Automotive and Discrete Group (ADG), Analog, MEMS and Sensors Group (AMS), and Microcontrollers and Digital ICs Group (MDG). The ADG segment comprises all dedicated automotive Integrated Circuits (ICs), and discrete and power transistor products. The AMS segment includes low-power analog ICs for all markets, smart power products; Touch Screen Controllers, Low Power Connectivity solutions for Internet of Things (IoT), and power conversion products, among others. The AMS segment comprises general purpose and secure microcontrollers, and Electrically Erasable Programmable Read-Only Memory memories.</v>
     <v>51370</v>
@@ -2306,24 +1222,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Schiphol Boulevard 265, SCHIPHOL, NOORD-HOLLAND, 1118 BH NL</v>
-    <v>48.19</v>
+    <v>51.76</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45099.997605566408</v>
+    <v>45132.97047756875</v>
     <v>0</v>
-    <v>47.375</v>
-    <v>43316450000</v>
+    <v>50.97</v>
+    <v>46291870000</v>
     <v>STMicroelectronics NV</v>
     <v>STMicroelectronics NV</v>
-    <v>47.5</v>
-    <v>10.6571</v>
-    <v>47.7</v>
-    <v>47.99</v>
+    <v>50.99</v>
+    <v>11.463200000000001</v>
+    <v>50.46</v>
+    <v>51.62</v>
+    <v>51.37</v>
     <v>911281900</v>
     <v>STM</v>
     <v>STMicroelectronics NV (XNYS:STM)</v>
-    <v>16749</v>
-    <v>3535719</v>
+    <v>3275387</v>
+    <v>3245688</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2355,6 +1272,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2375,6 +1294,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2391,7 +1311,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2402,13 +1322,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2474,13 +1397,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2525,6 +1454,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2532,6 +1464,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2893,10 +1828,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB115" sqref="AB115"/>
+      <selection pane="bottomRight" activeCell="AE24" sqref="AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2994,19 +1929,19 @@
       <c r="AC1" s="8">
         <v>2022</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="23">
         <v>2023</v>
       </c>
-      <c r="AE1" s="27">
+      <c r="AE1" s="23">
         <v>2024</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="23">
         <v>2025</v>
       </c>
-      <c r="AG1" s="27">
+      <c r="AG1" s="23">
         <v>2026</v>
       </c>
-      <c r="AH1" s="27">
+      <c r="AH1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3015,97 +1950,97 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9"/>
       <c r="AH2" s="9"/>
@@ -3198,144 +2133,144 @@
       <c r="AC3" s="1">
         <v>16128000000</v>
       </c>
-      <c r="AD3" s="28">
+      <c r="AD3" s="24">
         <v>17353000000</v>
       </c>
-      <c r="AE3" s="28">
-        <v>18044000000</v>
-      </c>
-      <c r="AF3" s="28">
-        <v>19005000000</v>
-      </c>
-      <c r="AG3" s="28">
+      <c r="AE3" s="24">
+        <v>18033000000</v>
+      </c>
+      <c r="AF3" s="24">
+        <v>18972000000</v>
+      </c>
+      <c r="AG3" s="24">
         <v>20859000000</v>
       </c>
-      <c r="AH3" s="28">
+      <c r="AH3" s="24">
         <v>21954000000</v>
       </c>
       <c r="AI3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AJ3" s="19" t="s">
+      <c r="AK3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AL3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AL3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="15">
+        <v>93</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36">
         <f>(C3/B3)-1</f>
         <v>0.15979068197164081</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="36">
         <f>(D3/C3)-1</f>
         <v>-2.5037842400954746E-2</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="36">
         <f>(E3/D3)-1</f>
         <v>5.6879510443141434E-2</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="36">
         <f t="shared" ref="F4:AH4" si="0">(F3/E3)-1</f>
         <v>0.19034162069725347</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="36">
         <f t="shared" si="0"/>
         <v>0.5452485188704097</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="36">
         <f t="shared" si="0"/>
         <v>-0.18639052383510324</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="36">
         <f t="shared" si="0"/>
         <v>-0.20464327243988256</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="36">
         <f t="shared" si="0"/>
         <v>0.43156645569620244</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="36">
         <f t="shared" si="0"/>
         <v>0.21027908261950823</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="36">
         <f t="shared" si="0"/>
         <v>1.3926940639269469E-2</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="36">
         <f t="shared" si="0"/>
         <v>0.10943481197928384</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="36">
         <f t="shared" si="0"/>
         <v>1.4917799878221949E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="36">
         <f t="shared" si="0"/>
         <v>-1.5898410158984078E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="36">
         <f t="shared" si="0"/>
         <v>-0.13533834586466165</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="36">
         <f t="shared" si="0"/>
         <v>0.21574618096357234</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="36">
         <f t="shared" si="0"/>
         <v>-5.9056640247438619E-2</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="36">
         <f t="shared" si="0"/>
         <v>-0.12758089368258863</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="36">
         <f t="shared" si="0"/>
         <v>-4.8392794065701183E-2</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="36">
         <f t="shared" si="0"/>
         <v>-8.3890126206384585E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="36">
         <f t="shared" si="0"/>
         <v>-6.8476499189627282E-2</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="36">
         <f t="shared" si="0"/>
         <v>1.1019283746556363E-2</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="36">
         <f t="shared" si="0"/>
         <v>0.19704574788469809</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="36">
         <f t="shared" si="0"/>
         <v>0.15778123876841987</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="36">
         <f t="shared" si="0"/>
         <v>-1.1175496688741737E-2</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="36">
         <f t="shared" si="0"/>
         <v>6.938049393051493E-2</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="36">
         <f t="shared" si="0"/>
         <v>0.24875232410216275</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="36">
         <f t="shared" si="0"/>
         <v>0.26385079539221068</v>
       </c>
@@ -3345,15 +2280,15 @@
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="0"/>
-        <v>3.9820203999308523E-2</v>
+        <v>3.9186307843024348E-2</v>
       </c>
       <c r="AF4" s="16">
         <f t="shared" si="0"/>
-        <v>5.3258700953225491E-2</v>
+        <v>5.2071202794875981E-2</v>
       </c>
       <c r="AG4" s="16">
         <f t="shared" si="0"/>
-        <v>9.755327545382797E-2</v>
+        <v>9.9462365591397761E-2</v>
       </c>
       <c r="AH4" s="16">
         <f t="shared" si="0"/>
@@ -3372,7 +2307,7 @@
         <v>0.6196620738066938</v>
       </c>
       <c r="AL4" s="17">
-        <f>(AC105+AB105+AA105)/3</f>
+        <f>(AC106+AB106+AA106)/3</f>
         <v>-0.16973302618084365</v>
       </c>
     </row>
@@ -3554,16 +2489,16 @@
         <v>7635000000</v>
       </c>
       <c r="AI6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AJ6" s="19" t="s">
+      <c r="AK6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AK6" s="19" t="s">
+      <c r="AL6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AL6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3667,7 +2602,7 @@
         <v>0.2455</v>
       </c>
       <c r="AL7" s="20">
-        <f>AC106/AC3</f>
+        <f>AC107/AC3</f>
         <v>3.90625E-2</v>
       </c>
     </row>
@@ -3676,7 +2611,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1">
         <v>532294000</v>
@@ -3762,7 +2697,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -3877,16 +2812,16 @@
         <v>0.11786954365079365</v>
       </c>
       <c r="AI9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AJ9" s="19" t="s">
+      <c r="AK9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AK9" s="19" t="s">
+      <c r="AL9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AL9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3894,25 +2829,25 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1">
         <v>-534000000</v>
@@ -3975,7 +2910,7 @@
         <v>1319000000</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" s="17">
         <f>AC9</f>
@@ -3999,88 +2934,88 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -4172,21 +3107,21 @@
         <v>1454000000</v>
       </c>
       <c r="AI12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AJ12" s="19" t="s">
+      <c r="AK12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AK12" s="19" t="s">
+      <c r="AL12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AL12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4495,16 +3430,16 @@
         <v>3196000000</v>
       </c>
       <c r="AI15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AJ15" s="19" t="s">
+      <c r="AK15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AK15" s="19" t="s">
+      <c r="AL15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AL15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4595,65 +3530,65 @@
       <c r="AC16" s="1">
         <v>11689000000</v>
       </c>
-      <c r="AI16" s="29">
+      <c r="AI16" s="25">
         <f>(AC35+AB35+AA35+Z35+Y35)/5</f>
         <v>9.0275371402945125E-3</v>
       </c>
-      <c r="AJ16" s="30">
+      <c r="AJ16" s="37">
         <f>AK101/AC3</f>
-        <v>2.6857917906746032</v>
-      </c>
-      <c r="AK16" s="30">
+        <v>2.8702796378968256</v>
+      </c>
+      <c r="AK16" s="37">
         <f>AK101/AC28</f>
-        <v>10.938497474747475</v>
-      </c>
-      <c r="AL16" s="31">
-        <f>AK101/AC106</f>
-        <v>68.756269841269841</v>
+        <v>11.689866161616161</v>
+      </c>
+      <c r="AL16" s="38">
+        <f>AK101/AC107</f>
+        <v>73.47915873015873</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1">
         <v>81000000</v>
@@ -4701,7 +3636,7 @@
         <v>58000000</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4790,10 +3725,19 @@
         <v>331000000</v>
       </c>
       <c r="AI18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="AJ18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL18" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4881,14 +3825,41 @@
       <c r="AC19" s="10">
         <v>4869000000</v>
       </c>
-      <c r="AI19" s="32">
+      <c r="AD19" s="30">
+        <v>5809000000</v>
+      </c>
+      <c r="AE19" s="30">
+        <v>6374000000</v>
+      </c>
+      <c r="AF19" s="30">
+        <v>7093000000</v>
+      </c>
+      <c r="AG19" s="30">
+        <v>7744000000</v>
+      </c>
+      <c r="AH19" s="30">
+        <v>8313000000</v>
+      </c>
+      <c r="AI19" s="26">
         <f>AC40-AC56-AC61</f>
         <v>1801000000</v>
       </c>
+      <c r="AJ19" s="37">
+        <f>AK101/AD3</f>
+        <v>2.6676580418371465</v>
+      </c>
+      <c r="AK19" s="37">
+        <f>AK101/AD28</f>
+        <v>11.407557910300641</v>
+      </c>
+      <c r="AL19" s="38">
+        <f>AK101/AD106</f>
+        <v>45.206904296875003</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4904,7 +3875,7 @@
         <v>9.5577346336860991E-2</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AC20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AH20" si="3">(F19/E19)-1</f>
         <v>0.22321680065011384</v>
       </c>
       <c r="G20" s="15">
@@ -4999,8 +3970,28 @@
         <f t="shared" si="3"/>
         <v>0.42451726155646585</v>
       </c>
+      <c r="AD20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.19305812281782697</v>
+      </c>
+      <c r="AE20" s="16">
+        <f t="shared" si="3"/>
+        <v>9.7262867963504807E-2</v>
+      </c>
+      <c r="AF20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.11280200815814245</v>
+      </c>
+      <c r="AG20" s="16">
+        <f t="shared" si="3"/>
+        <v>9.1780628788946883E-2</v>
+      </c>
+      <c r="AH20" s="16">
+        <f t="shared" si="3"/>
+        <v>7.3476239669421517E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5088,8 +4079,34 @@
       <c r="AC21" s="2">
         <v>0.3019</v>
       </c>
+      <c r="AD21" s="31">
+        <f>AD19/AD3</f>
+        <v>0.3347547974413646</v>
+      </c>
+      <c r="AE21" s="31">
+        <f t="shared" ref="AE21:AH21" si="4">AE19/AE3</f>
+        <v>0.35346309543614485</v>
+      </c>
+      <c r="AF21" s="31">
+        <f t="shared" si="4"/>
+        <v>0.37386675100147587</v>
+      </c>
+      <c r="AG21" s="31">
+        <f t="shared" si="4"/>
+        <v>0.37125461431516371</v>
+      </c>
+      <c r="AH21" s="31">
+        <f t="shared" si="4"/>
+        <v>0.37865537031975949</v>
+      </c>
+      <c r="AK21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL21" s="19" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5177,8 +4194,16 @@
       <c r="AC22" s="10">
         <v>4439000000</v>
       </c>
+      <c r="AK22" s="70">
+        <f>AC98/AK101*-1</f>
+        <v>4.5796378500155641E-3</v>
+      </c>
+      <c r="AL22" s="39">
+        <f>AC107/AK101</f>
+        <v>1.3609301158065121E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5267,7 +4292,7 @@
         <v>0.2752</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5356,7 +4381,7 @@
         <v>47000000</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5445,7 +4470,7 @@
         <v>4486000000</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5534,7 +4559,7 @@
         <v>0.27810000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5623,7 +4648,7 @@
         <v>520000000</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5711,10 +4736,25 @@
       <c r="AC28" s="11">
         <v>3960000000</v>
       </c>
+      <c r="AD28" s="32">
+        <v>4058000000</v>
+      </c>
+      <c r="AE28" s="32">
+        <v>4099000000</v>
+      </c>
+      <c r="AF28" s="32">
+        <v>4405000000</v>
+      </c>
+      <c r="AG28" s="32">
+        <v>4715000000</v>
+      </c>
+      <c r="AH28" s="32">
+        <v>5035000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:35" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5730,103 +4770,123 @@
         <v>1.1233440084220003E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AC29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AH29" si="5">(F28/E28)-1</f>
         <v>0.33112149464512886</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6534448480773025</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.82296916954238097</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1278499379539184</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.53747714808043878</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3754940711462451</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.55740432612312807</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9398496240601504</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.6099744245524297</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.64779874213836486</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0241730279898218</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.5279698302954117</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.81547619047619047</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-15.116129032258064</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.71252285191956122</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.2050874403815581</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.1472868217054264</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7647058823529411</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.59629629629629632</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.20108275328692959</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0667957405614823E-2</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8083182640144666</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.98</v>
       </c>
+      <c r="AD29" s="16">
+        <f t="shared" si="5"/>
+        <v>2.474747474747474E-2</v>
+      </c>
+      <c r="AE29" s="16">
+        <f t="shared" si="5"/>
+        <v>1.0103499260719628E-2</v>
+      </c>
+      <c r="AF29" s="16">
+        <f t="shared" si="5"/>
+        <v>7.4652354232739748E-2</v>
+      </c>
+      <c r="AG29" s="16">
+        <f t="shared" si="5"/>
+        <v>7.0374574347332519E-2</v>
+      </c>
+      <c r="AH29" s="16">
+        <f t="shared" si="5"/>
+        <v>6.7868504772004234E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5914,8 +4974,28 @@
       <c r="AC30" s="2">
         <v>0.2455</v>
       </c>
+      <c r="AD30" s="33">
+        <f>AD28/AD3</f>
+        <v>0.23385005474557713</v>
+      </c>
+      <c r="AE30" s="33">
+        <f t="shared" ref="AE30:AH30" si="6">AE28/AE3</f>
+        <v>0.22730549548050796</v>
+      </c>
+      <c r="AF30" s="33">
+        <f t="shared" si="6"/>
+        <v>0.2321842715580856</v>
+      </c>
+      <c r="AG30" s="33">
+        <f t="shared" si="6"/>
+        <v>0.22604151685123927</v>
+      </c>
+      <c r="AH30" s="33">
+        <f t="shared" si="6"/>
+        <v>0.22934317208709118</v>
+      </c>
     </row>
-    <row r="31" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -6003,8 +5083,23 @@
       <c r="AC31" s="12">
         <v>4.37</v>
       </c>
+      <c r="AD31" s="34">
+        <v>4.46</v>
+      </c>
+      <c r="AE31" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="AF31" s="34">
+        <v>4.84</v>
+      </c>
+      <c r="AG31" s="34">
+        <v>5.18</v>
+      </c>
+      <c r="AH31" s="34">
+        <v>5.53</v>
+      </c>
     </row>
-    <row r="32" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6273,7 +5368,7 @@
     </row>
     <row r="35" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -6281,107 +5376,107 @@
         <v>6.4009841607965329E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AC35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AC35" si="7">(D34-C34)/C34</f>
         <v>5.0320237245373529E-3</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8231595140895378E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.8593882561404313E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6823178896462786E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.5487199985212596E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.2488223306861185E-3</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.8433048391608391E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.3256308459021988E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.9752144725560668E-3</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.7176375347540877E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.475703355346642E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.5757577777777778E-3</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.8197446110574545E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.8967626300164898E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.2439907803753707E-3</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.9679380873410725E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.9438851922860043E-3</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.412011679454078E-3</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.089585454121487E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.5458737177318703E-3</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8368746282759339E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1502117303624922E-3</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.5107190783768396E-3</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.7849048251438686E-3</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5416222451027382E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4297065773315658E-2</v>
       </c>
     </row>
@@ -6390,88 +5485,88 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="21" x14ac:dyDescent="0.25">
@@ -6479,88 +5574,88 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -6568,22 +5663,22 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1">
         <v>2438816000</v>
@@ -6625,7 +5720,7 @@
         <v>1836000000</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V38" s="1">
         <v>1771000000</v>
@@ -6657,22 +5752,22 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1">
         <v>5390000</v>
@@ -6684,10 +5779,10 @@
         <v>2000000</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1">
         <v>460000000</v>
@@ -6746,22 +5841,22 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1">
         <v>2444206000</v>
@@ -6835,22 +5930,22 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1">
         <v>902366000</v>
@@ -6924,22 +6019,22 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1">
         <v>742469000</v>
@@ -7013,22 +6108,22 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1">
         <v>468618000</v>
@@ -7102,22 +6197,22 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="10">
         <v>4557659000</v>
@@ -7191,22 +6286,22 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="1">
         <v>5888161000</v>
@@ -7280,25 +6375,25 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1">
         <v>159000000</v>
@@ -7369,22 +6464,22 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1">
         <v>212610000</v>
@@ -7458,22 +6553,22 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1">
         <v>212610000</v>
@@ -7547,43 +6642,43 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1">
         <v>5390000</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1">
         <v>752000000</v>
@@ -7636,79 +6731,79 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA50" s="1">
         <v>739000000</v>
@@ -7725,25 +6820,25 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1">
         <v>2000000</v>
@@ -7752,10 +6847,10 @@
         <v>2000000</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M51" s="1">
         <v>460000000</v>
@@ -7814,22 +6909,22 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1">
         <v>6106161000</v>
@@ -7903,88 +6998,88 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7992,22 +7087,22 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="11">
         <v>10663820000</v>
@@ -8081,22 +7176,22 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1">
         <v>936127000</v>
@@ -8170,22 +7265,22 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1">
         <v>129278000</v>
@@ -8259,82 +7354,82 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB57" s="1">
         <v>126000000</v>
@@ -8348,88 +7443,88 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1">
         <v>212402000</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -8437,22 +7532,22 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1">
         <v>409542000</v>
@@ -8503,7 +7598,7 @@
         <v>851000000</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y59" s="1">
         <v>993000000</v>
@@ -8526,22 +7621,22 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" s="10">
         <v>1687349000</v>
@@ -8615,22 +7710,22 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1">
         <v>96528000</v>
@@ -8704,88 +7799,88 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -8793,25 +7888,25 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1">
         <v>28000000</v>
@@ -8882,22 +7977,22 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1">
         <v>112213000</v>
@@ -8971,22 +8066,22 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1">
         <v>208741000</v>
@@ -9060,22 +8155,22 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1">
         <v>2790750000</v>
@@ -9090,7 +8185,7 @@
         <v>1923000000</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1">
         <v>2133000000</v>
@@ -9135,13 +8230,13 @@
         <v>1495000000</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -9149,22 +8244,22 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="10">
         <v>4686840000</v>
@@ -9238,22 +8333,22 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1">
         <v>1142358000</v>
@@ -9327,52 +8422,52 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R69" s="1">
         <v>3504000000</v>
@@ -9416,28 +8511,28 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1">
         <v>-868963000</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1">
         <v>-258000000</v>
@@ -9505,22 +8600,22 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1">
         <v>10524122000</v>
@@ -9586,7 +8681,7 @@
         <v>2333000000</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -9594,22 +8689,22 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="10">
         <v>10797517000</v>
@@ -9683,22 +8778,22 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="11">
         <v>15484357000</v>
@@ -9772,88 +8867,88 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="21" x14ac:dyDescent="0.25">
@@ -9861,88 +8956,88 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10030,8 +9125,8 @@
       <c r="AB76" s="1">
         <v>2006000000</v>
       </c>
-      <c r="AC76" s="1" t="s">
-        <v>92</v>
+      <c r="AC76" s="1">
+        <v>3960000000</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10128,10 +9223,10 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1">
         <v>-3157000</v>
@@ -10209,7 +9304,7 @@
         <v>45000000</v>
       </c>
       <c r="AC78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10217,49 +9312,49 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1">
         <v>34000000</v>
@@ -10303,118 +9398,118 @@
     </row>
     <row r="80" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AC80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AC80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2862942199884011E-3</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9789419619928093E-3</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2951842693983281E-3</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2170254887404106E-3</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.8622366288492711E-3</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.5096418732782371E-3</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.4495912806539508E-3</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.3080148556367557E-3</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2934602649006623E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.517371285056509E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5167824640375771E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7318391975550504E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3702876984126984E-2</v>
       </c>
     </row>
@@ -10503,8 +9598,8 @@
       <c r="AB81" s="1">
         <v>-145000000</v>
       </c>
-      <c r="AC81" s="1" t="s">
-        <v>92</v>
+      <c r="AC81" s="1">
+        <v>184000000</v>
       </c>
     </row>
     <row r="82" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -10512,25 +9607,25 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1">
         <v>-129000000</v>
@@ -10593,7 +9688,7 @@
         <v>-307000000</v>
       </c>
       <c r="AC82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:37" ht="21" x14ac:dyDescent="0.25">
@@ -10658,7 +9753,7 @@
         <v>-22000000</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1">
         <v>-39000000</v>
@@ -10684,53 +9779,53 @@
       <c r="AC83" s="1">
         <v>-125000000</v>
       </c>
-      <c r="AJ83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK83" s="63"/>
+      <c r="AJ83" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK83" s="41"/>
     </row>
     <row r="84" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1">
         <v>58052000000</v>
@@ -10739,34 +9834,34 @@
         <v>-30901000000</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA84" s="1">
         <v>161000000</v>
@@ -10775,19 +9870,19 @@
         <v>95000000</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK84" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="AJ84" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK84" s="42"/>
     </row>
     <row r="85" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1">
         <v>11156000</v>
@@ -10805,7 +9900,7 @@
         <v>186214000</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1">
         <v>-30000000</v>
@@ -10868,12 +9963,12 @@
         <v>255000000</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK85" s="24">
+        <v>91</v>
+      </c>
+      <c r="AJ85" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK85" s="44">
         <f>AC17</f>
         <v>58000000</v>
       </c>
@@ -10966,10 +10061,10 @@
       <c r="AC86" s="1">
         <v>1219000000</v>
       </c>
-      <c r="AJ86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK86" s="24">
+      <c r="AJ86" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK86" s="44">
         <f>AC56</f>
         <v>175000000</v>
       </c>
@@ -11062,10 +10157,10 @@
       <c r="AC87" s="10">
         <v>5202000000</v>
       </c>
-      <c r="AJ87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK87" s="24">
+      <c r="AJ87" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK87" s="44">
         <f>AC61</f>
         <v>2542000000</v>
       </c>
@@ -11096,7 +10191,7 @@
         <v>-1699775000</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J88" s="1">
         <v>-1221000000</v>
@@ -11123,7 +10218,7 @@
         <v>-1034000000</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S88" s="1">
         <v>-492000000</v>
@@ -11158,134 +10253,134 @@
       <c r="AC88" s="1">
         <v>-1830000000</v>
       </c>
-      <c r="AJ88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK88" s="34">
+      <c r="AJ88" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK88" s="46">
         <f>AK85/(AK86+AK87)</f>
         <v>2.1347073978652927E-2</v>
       </c>
     </row>
     <row r="89" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:AC89" si="9">(-1*B88)/B3</f>
+        <v>0.28187598469502589</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.27295165875857519</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.25762544023666722</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.22300101324182767</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.26650780139375302</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.42461459148060021</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.26739072025088972</v>
+      </c>
+      <c r="I89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.16869300911854104</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.23401826484018265</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.16223823463183967</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.16429876192409174</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.1347865213478652</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.9878073562284092E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.2996474735605169E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.9942006572588435E-2</v>
+      </c>
+      <c r="R89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.7930060049452489E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.7186340014847815E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.8206374932468936E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.6700014499057556E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.7623691381041161E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.15586438241284295</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.13069122516556292</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.12358727501046463</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.12555044524904591</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.14340568920930963</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.1134672619047619</v>
+      </c>
+      <c r="AJ89" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:AC89" si="7">(-1*B88)/B3</f>
-        <v>0.28187598469502589</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.27295165875857519</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.25762544023666722</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.22300101324182767</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.26650780139375302</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.42461459148060021</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.26739072025088972</v>
-      </c>
-      <c r="I89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.16869300911854104</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.23401826484018265</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.16223823463183967</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.16429876192409174</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.1347865213478652</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.9878073562284092E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.2996474735605169E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.9942006572588435E-2</v>
-      </c>
-      <c r="R89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.7930060049452489E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.7186340014847815E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.8206374932468936E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.6700014499057556E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.7623691381041161E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.15586438241284295</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.13069122516556292</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.12358727501046463</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.12555044524904591</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.14340568920930963</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.1134672619047619</v>
-      </c>
-      <c r="AJ89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK89" s="24">
+      <c r="AK89" s="44">
         <f>AC27</f>
         <v>520000000</v>
       </c>
@@ -11295,25 +10390,25 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1">
         <v>-307000000</v>
@@ -11325,13 +10420,13 @@
         <v>-3000000</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1">
         <v>7000000</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1">
         <v>-1694000000</v>
@@ -11355,33 +10450,33 @@
         <v>29000000</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z90" s="1">
         <v>-127000000</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ90" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AK90" s="24">
+      <c r="AK90" s="44">
         <f>AC25</f>
         <v>4486000000</v>
       </c>
@@ -11391,37 +10486,37 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1">
         <v>-196000</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1">
         <v>-126854000</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1">
         <v>-460000000</v>
@@ -11430,10 +10525,10 @@
         <v>-708000000</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="1">
         <v>-1100000000</v>
@@ -11445,25 +10540,25 @@
         <v>-450000000</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1">
         <v>-333000000</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X91" s="1">
         <v>-99000000</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA91" s="1">
         <v>-577000000</v>
@@ -11472,12 +10567,12 @@
         <v>-17000000</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK91" s="34">
+        <v>91</v>
+      </c>
+      <c r="AJ91" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK91" s="46">
         <f>AK89/AK90</f>
         <v>0.11591618368256799</v>
       </c>
@@ -11487,93 +10582,93 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1">
         <v>4483000</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1">
         <v>30509000</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB92" s="1">
         <v>424000000</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK92" s="36">
+        <v>91</v>
+      </c>
+      <c r="AJ92" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK92" s="46">
         <f>AK88*(1-AK91)</f>
         <v>1.8872602630258029E-2</v>
       </c>
@@ -11666,10 +10761,10 @@
       <c r="AC93" s="1">
         <v>-924000000</v>
       </c>
-      <c r="AJ93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK93" s="65"/>
+      <c r="AJ93" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK93" s="42"/>
     </row>
     <row r="94" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11759,11 +10854,12 @@
       <c r="AC94" s="10">
         <v>-924000000</v>
       </c>
-      <c r="AJ94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK94" s="37">
-        <v>4.095E-2</v>
+      <c r="AJ94" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK94" s="47">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.857E-2</v>
       </c>
     </row>
     <row r="95" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -11771,25 +10867,25 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1">
         <v>-158000000</v>
@@ -11822,13 +10918,13 @@
         <v>-108000000</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1">
         <v>-200000000</v>
@@ -11851,15 +10947,15 @@
       <c r="AB95" s="1">
         <v>-1357000000</v>
       </c>
-      <c r="AC95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ95" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK95" s="39" cm="1">
+      <c r="AC95" s="1">
+        <v>-192000000</v>
+      </c>
+      <c r="AJ95" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK95" s="49" cm="1">
         <f t="array" ref="AK95">_FV(A1,"Beta")</f>
-        <v>1.5825</v>
+        <v>1.6035999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -11867,7 +10963,7 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1">
         <v>16671000</v>
@@ -11888,72 +10984,72 @@
         <v>43186000</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK96" s="37">
+        <v>91</v>
+      </c>
+      <c r="AJ96" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK96" s="50">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11962,70 +11058,70 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1">
         <v>-233283000</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X97" s="1">
         <v>-297000000</v>
@@ -12042,15 +11138,15 @@
       <c r="AB97" s="1">
         <v>-485000000</v>
       </c>
-      <c r="AC97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK97" s="36">
+      <c r="AC97" s="1">
+        <v>-346000000</v>
+      </c>
+      <c r="AJ97" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK97" s="46">
         <f>(AK94)+((AK95)*(AK96-AK94))</f>
-        <v>0.10907662500000001</v>
+        <v>0.11142154800000001</v>
       </c>
     </row>
     <row r="98" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12058,16 +11154,16 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1">
         <v>-22848000</v>
@@ -12097,10 +11193,10 @@
         <v>-269000000</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1">
         <v>-212000000</v>
@@ -12109,13 +11205,13 @@
         <v>-327000000</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1">
         <v>-350000000</v>
@@ -12138,13 +11234,13 @@
       <c r="AB98" s="1">
         <v>-205000000</v>
       </c>
-      <c r="AC98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK98" s="65"/>
+      <c r="AC98" s="1">
+        <v>-212000000</v>
+      </c>
+      <c r="AJ98" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK98" s="42"/>
     </row>
     <row r="99" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12234,10 +11330,10 @@
       <c r="AC99" s="1">
         <v>-185000000</v>
       </c>
-      <c r="AJ99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK99" s="24">
+      <c r="AJ99" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK99" s="44">
         <f>AK86+AK87</f>
         <v>2717000000</v>
       </c>
@@ -12330,12 +11426,12 @@
       <c r="AC100" s="10">
         <v>-185000000</v>
       </c>
-      <c r="AJ100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK100" s="34">
+      <c r="AJ100" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK100" s="46">
         <f>AK99/AK103</f>
-        <v>5.9022297915971973E-2</v>
+        <v>5.5438944011563622E-2</v>
       </c>
     </row>
     <row r="101" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12424,14 +11520,14 @@
         <v>-9000000</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ101" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK101" s="40" cm="1">
+        <v>91</v>
+      </c>
+      <c r="AJ101" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK101" s="51" cm="1">
         <f t="array" ref="AK101">_FV(A1,"Market cap",TRUE)</f>
-        <v>43316450000</v>
+        <v>46291870000</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12490,13 +11586,13 @@
         <v>20000000</v>
       </c>
       <c r="S102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V102" s="10">
         <v>-246000000</v>
@@ -12522,12 +11618,12 @@
       <c r="AC102" s="10">
         <v>-185000000</v>
       </c>
-      <c r="AJ102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK102" s="34">
+      <c r="AJ102" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK102" s="46">
         <f>AK101/AK103</f>
-        <v>0.94097770208402798</v>
+        <v>0.94456105598843643</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12574,7 +11670,7 @@
         <v>1659000000</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P103" s="1">
         <v>476810000000</v>
@@ -12586,19 +11682,19 @@
         <v>1892000000</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X103" s="1">
         <v>1629000000</v>
@@ -12615,15 +11711,15 @@
       <c r="AB103" s="1">
         <v>3006000000</v>
       </c>
-      <c r="AC103" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK103" s="41">
+      <c r="AC103" s="1">
+        <v>3225000000</v>
+      </c>
+      <c r="AJ103" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK103" s="52">
         <f>AK99+AK101</f>
-        <v>46033450000</v>
+        <v>49008870000</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12631,7 +11727,7 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11">
         <v>551896000</v>
@@ -12682,13 +11778,13 @@
         <v>1912000000</v>
       </c>
       <c r="S104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V104" s="11">
         <v>1771000000</v>
@@ -12711,423 +11807,521 @@
       <c r="AB104" s="11">
         <v>3225000000</v>
       </c>
-      <c r="AC104" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK104" s="65"/>
+      <c r="AC104" s="11">
+        <v>3258000000</v>
+      </c>
+      <c r="AJ104" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK104" s="42"/>
     </row>
     <row r="105" spans="1:37" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:AB105" si="10">(B22*(1-$AK$91))+B77+B88+B81</f>
+        <v>-191629291.12795353</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>-61694947.391885757</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>-12093434.685688734</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>68933310.298707008</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>1337310.2987070084</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>-769655794.4716897</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>437515514.48952293</v>
+      </c>
+      <c r="I105" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>621283994.65002227</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>248829246.544806</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>246716451.18145323</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>685524743.64690161</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>-354825679.89300048</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>170171951404.36914</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>242139582255.90726</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>855823896.56709766</v>
+      </c>
+      <c r="R105" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>-721778421.75657606</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>-11098974.587605894</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>378526081.14132857</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>423365135.97860014</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>519193936.69193053</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>391895229.60320997</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>480717342.84440494</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>637552831.02987075</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="10"/>
+        <v>830642888.98796248</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="10"/>
+        <v>1228932679.4471688</v>
+      </c>
+      <c r="AC105" s="1">
+        <f>(AC22*(1-$AK$91))+AC77+AC88+AC81</f>
+        <v>2609448060.633081</v>
+      </c>
+      <c r="AD105" s="27">
+        <f>AC105*(1+$AK$106)</f>
+        <v>2776019601.0662847</v>
+      </c>
+      <c r="AE105" s="27">
+        <f t="shared" ref="AE105:AH105" si="11">AD105*(1+$AK$106)</f>
+        <v>2953224071.3136034</v>
+      </c>
+      <c r="AF105" s="27">
+        <f t="shared" si="11"/>
+        <v>3141740213.9509773</v>
+      </c>
+      <c r="AG105" s="27">
+        <f t="shared" si="11"/>
+        <v>3342290098.4165039</v>
+      </c>
+      <c r="AH105" s="27">
+        <f t="shared" si="11"/>
+        <v>3555641886.7379055</v>
+      </c>
+      <c r="AI105" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ105" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-0.18247737556561083</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-0.64270295700784574</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-2.2643339852448543</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>0.86456642264220296</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-8.276093474064643</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AC105" si="8">(H106/G106)-1</f>
-        <v>-1.3976516885896584</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>3.8630096153027242</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.12084063047285465</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.21979166666666661</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.23228010247651576</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.38542825361512789</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.12163789642713774</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-8.5511882998171842</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>-10.240588306500424</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.98824939576742454</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.50947603121516161</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.30454545454545456</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.40196078431372551</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.95355191256830607</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.17762237762237754</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.0273159144893111</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>8.0843585237258431E-2</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.3008130081300751E-2</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.60674157303370779</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.54149659863945576</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.44395410414827896</v>
-      </c>
-      <c r="AD105" s="15"/>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
-      <c r="AH105" s="15"/>
-      <c r="AI105" s="15"/>
-      <c r="AJ105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK105" s="26">
+      <c r="AK105" s="54">
         <f>(AK100*AK92)+(AK102*AK97)</f>
-        <v>0.10375257631847409</v>
+        <v>0.10629073219931763</v>
       </c>
     </row>
     <row r="106" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-176800000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-144538000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-51643000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>65294000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>121745000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-885828000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>352251000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>1713000000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>1920000000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>2342000000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>1798000000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>2491000000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>2188000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>-16522000000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>152673000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>1794000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>880000000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>612000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>366000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>715000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>842000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>842000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>1707000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>1845000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>1869000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>735000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>1133000000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>630000000</v>
-      </c>
-      <c r="AD106" s="42">
-        <f>AC106*(1+$AK$106)</f>
-        <v>670204378.27679348</v>
-      </c>
-      <c r="AE106" s="42">
-        <f t="shared" ref="AE106:AH106" si="9">AD106*(1+$AK$106)</f>
-        <v>712974458.1926719</v>
-      </c>
-      <c r="AF106" s="42">
-        <f t="shared" si="9"/>
-        <v>758473973.77818</v>
-      </c>
-      <c r="AG106" s="42">
-        <f t="shared" si="9"/>
-        <v>806877107.99227631</v>
-      </c>
-      <c r="AH106" s="42">
-        <f t="shared" si="9"/>
-        <v>858369159.53609633</v>
-      </c>
-      <c r="AI106" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ106" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK106" s="45">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>-0.18247737556561083</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>-0.64270295700784574</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>-2.2643339852448543</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>0.86456642264220296</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>-8.276093474064643</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>-1.3976516885896584</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>3.8630096153027242</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>0.12084063047285465</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>0.21979166666666661</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>-0.23228010247651576</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>0.38542825361512789</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>-0.12163789642713774</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>-8.5511882998171842</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>-10.240588306500424</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>-0.98824939576742454</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>-0.50947603121516161</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>-0.30454545454545456</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>-0.40196078431372551</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>0.95355191256830607</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>0.17762237762237754</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>0</v>
+      </c>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
+        <v>1.0273159144893111</v>
+      </c>
+      <c r="Y106" s="15">
+        <f>(Y107/X107)-1</f>
+        <v>8.0843585237258431E-2</v>
+      </c>
+      <c r="Z106" s="15">
+        <f>(Z107/Y107)-1</f>
+        <v>1.3008130081300751E-2</v>
+      </c>
+      <c r="AA106" s="15">
+        <f>(AA107/Z107)-1</f>
+        <v>-0.60674157303370779</v>
+      </c>
+      <c r="AB106" s="15">
+        <f>(AB107/AA107)-1</f>
+        <v>0.54149659863945576</v>
+      </c>
+      <c r="AC106" s="15">
+        <f>(AC107/AB107)-1</f>
+        <v>-0.44395410414827896</v>
+      </c>
+      <c r="AD106" s="68">
+        <v>1024000000</v>
+      </c>
+      <c r="AE106" s="68">
+        <v>2417000000</v>
+      </c>
+      <c r="AF106" s="68">
+        <v>3067000000</v>
+      </c>
+      <c r="AG106" s="68">
+        <v>4104000000</v>
+      </c>
+      <c r="AH106" s="68">
+        <v>4742000000</v>
+      </c>
+      <c r="AI106" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ106" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK106" s="56">
         <f>(SUM(AD4:AH4)/5)</f>
-        <v>6.3816473455227701E-2</v>
+        <v>6.3834012619814917E-2</v>
       </c>
     </row>
     <row r="107" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="43"/>
-      <c r="AE107" s="43"/>
-      <c r="AF107" s="43"/>
-      <c r="AG107" s="43"/>
-      <c r="AH107" s="46">
+      <c r="A107" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-176800000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-144538000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-51643000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>65294000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>121745000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-885828000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>352251000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1713000000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>1920000000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>2342000000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>1798000000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>2491000000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>2188000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>-16522000000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>152673000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>1794000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>880000000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>612000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>366000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>715000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>842000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>842000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>1707000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>1845000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>1869000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>735000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>1133000000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>630000000</v>
+      </c>
+      <c r="AD107" s="28"/>
+      <c r="AE107" s="28"/>
+      <c r="AF107" s="28"/>
+      <c r="AG107" s="28"/>
+      <c r="AH107" s="69">
         <f>AH106*(1+AK107)/(AK108-AK107)</f>
-        <v>11172058485.635918</v>
-      </c>
-      <c r="AI107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK107" s="49">
+        <v>59792178868.340919</v>
+      </c>
+      <c r="AI107" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ107" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK107" s="58">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="AD108" s="46">
-        <f t="shared" ref="AD108:AF108" si="10">AD107+AD106</f>
-        <v>670204378.27679348</v>
-      </c>
-      <c r="AE108" s="46">
-        <f t="shared" si="10"/>
-        <v>712974458.1926719</v>
-      </c>
-      <c r="AF108" s="46">
-        <f t="shared" si="10"/>
-        <v>758473973.77818</v>
-      </c>
-      <c r="AG108" s="46">
-        <f>AG107+AG106</f>
-        <v>806877107.99227631</v>
-      </c>
-      <c r="AH108" s="46">
+      <c r="AD108" s="69">
+        <f t="shared" ref="AD108:AG108" si="12">AD107+AD106</f>
+        <v>1024000000</v>
+      </c>
+      <c r="AE108" s="69">
+        <f t="shared" si="12"/>
+        <v>2417000000</v>
+      </c>
+      <c r="AF108" s="69">
+        <f t="shared" si="12"/>
+        <v>3067000000</v>
+      </c>
+      <c r="AG108" s="69">
+        <f t="shared" si="12"/>
+        <v>4104000000</v>
+      </c>
+      <c r="AH108" s="69">
         <f>AH107+AH106</f>
-        <v>12030427645.172014</v>
-      </c>
-      <c r="AI108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK108" s="51">
+        <v>64534178868.340919</v>
+      </c>
+      <c r="AI108" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ108" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK108" s="56">
         <f>AK105</f>
-        <v>0.10375257631847409</v>
+        <v>0.10629073219931763</v>
       </c>
     </row>
     <row r="109" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="AD109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE109" s="61"/>
+        <v>149</v>
+      </c>
+      <c r="AE109" s="60"/>
     </row>
     <row r="110" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE110" s="40">
+      <c r="AD110" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE110" s="51">
         <f>NPV(AK108,AD108,AE108,AF108,AG108,AH108)</f>
-        <v>9643978764.0251789</v>
+        <v>46849809086.580574</v>
       </c>
     </row>
     <row r="111" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE111" s="40">
+      <c r="AD111" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE111" s="51">
         <f>AC40</f>
         <v>4518000000</v>
       </c>
     </row>
     <row r="112" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE112" s="40">
+      <c r="AD112" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE112" s="51">
         <f>AK99</f>
         <v>2717000000</v>
       </c>
     </row>
     <row r="113" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE113" s="40">
+      <c r="AD113" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE113" s="51">
         <f>AE110+AE111-AE112</f>
-        <v>11444978764.025179</v>
+        <v>48650809086.580574</v>
       </c>
     </row>
     <row r="114" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD114" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE114" s="53">
+      <c r="AD114" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE114" s="61">
         <f>AC34*(1+(AI16*5))</f>
         <v>988909278.21073329</v>
       </c>
     </row>
     <row r="115" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD115" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE115" s="55">
+      <c r="AD115" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE115" s="63">
         <f>AE113/AE114</f>
-        <v>11.573335407200307</v>
+        <v>49.196433038434137</v>
       </c>
     </row>
     <row r="116" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD116" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE116" s="56" cm="1">
+      <c r="AD116" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE116" s="64" cm="1">
         <f t="array" ref="AE116">_FV(A1,"Price")</f>
-        <v>47.99</v>
+        <v>51.62</v>
       </c>
     </row>
     <row r="117" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD117" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE117" s="58">
+      <c r="AD117" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE117" s="65">
         <f>AE115/AE116-1</f>
-        <v>-0.75883860372576983</v>
+        <v>-4.6950154234131403E-2</v>
       </c>
     </row>
     <row r="118" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD118" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE118" s="59" t="str">
+      <c r="AD118" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE118" s="66" t="str">
         <f>IF(AE115&gt;AE116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -13200,8 +12394,8 @@
     <hyperlink ref="AC36" r:id="rId56" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="AC74" r:id="rId57" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
     <hyperlink ref="AD1" r:id="rId58" display="https://finbox.com/NYSE:STM/explorer/revenue_proj" xr:uid="{1F23287F-CF5B-5849-9719-559924833366}"/>
+    <hyperlink ref="AI106" r:id="rId59" xr:uid="{C2413979-D74D-E741-B199-3770F4CF7FE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId59"/>
 </worksheet>
 </file>